--- a/biology/Origine et évolution du vivant/Stratégie_de_survie/Stratégie_de_survie.xlsx
+++ b/biology/Origine et évolution du vivant/Stratégie_de_survie/Stratégie_de_survie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strat%C3%A9gie_de_survie</t>
+          <t>Stratégie_de_survie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie de l'évolution de Darwin montre que seuls les plus adaptés survivent. Et qu'il s'agisse de résister à des conditions climatiques changeantes ou à un environnement brutalement différent (notamment lors de crises géologiques), mais également sur du plus long terme par adaptation aux relations inter-spécifiques. En effet, il existe une véritable pression de sélection sur le génome d'une espèce.
 Ainsi, les génomes sélectionnés présenteront des adaptations morpho-anatomiques, physiologiques mais aussi comportementales favorables. D'où la notion de stratégie de survie. Le but premier d'une espèce étant de survivre, assez longtemps pour pouvoir se reproduire et ainsi se pérenniser dans le temps, les individus vont développer des mécanismes le leur permettant (par sélection naturelle).
